--- a/whonet/static/whonet_xl/whonet_codes_location_2020.xlsx
+++ b/whonet/static/whonet_xl/whonet_codes_location_2020.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\dmu_sys\whonet\static\whonet_xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="715" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12000" tabRatio="715" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="bgh" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15347" uniqueCount="1838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15352" uniqueCount="1838">
   <si>
     <t>ent</t>
   </si>
@@ -21359,15 +21359,19 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1311"/>
+  <dimension ref="A1:E1312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1277" workbookViewId="0">
-      <selection activeCell="E1311" sqref="E1311"/>
+    <sheetView tabSelected="1" topLeftCell="A1248" workbookViewId="0">
+      <selection activeCell="A1312" sqref="A1312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -41917,6 +41921,23 @@
         <v>6</v>
       </c>
       <c r="E1311" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1312" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1312" t="s">
+        <v>260</v>
+      </c>
+      <c r="C1312" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D1312" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1312" t="s">
         <v>4</v>
       </c>
     </row>

--- a/whonet/static/whonet_xl/whonet_codes_location_2020.xlsx
+++ b/whonet/static/whonet_xl/whonet_codes_location_2020.xlsx
@@ -57,7 +57,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">nki!$A$1:$E$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">nmc!$A$1:$E$236</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">onp!$A$1:$E$17</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">pgh!$A$1:$E$1306</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">pgh!$A$1:$E$1312</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">rmc!$A$1:$E$60</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">rth!$A$1:$E$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">rtm!$A$1:$E$16</definedName>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15352" uniqueCount="1838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15354" uniqueCount="1837">
   <si>
     <t>ent</t>
   </si>
@@ -5588,9 +5588,6 @@
   </si>
   <si>
     <t>ERGS</t>
-  </si>
-  <si>
-    <t>PGH</t>
   </si>
 </sst>
 </file>
@@ -21361,8 +21358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1248" workbookViewId="0">
-      <selection activeCell="A1312" sqref="A1312"/>
+    <sheetView tabSelected="1" topLeftCell="A1123" workbookViewId="0">
+      <selection activeCell="E1155" sqref="E1155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39529,6 +39526,12 @@
       <c r="C1155" t="s">
         <v>1215</v>
       </c>
+      <c r="D1155" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1155" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="1156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1156" t="s">
@@ -41826,123 +41829,123 @@
       </c>
     </row>
     <row r="1306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1306" t="s">
+        <v>200</v>
+      </c>
       <c r="B1306" t="s">
-        <v>79</v>
+        <v>7</v>
       </c>
       <c r="C1306" t="s">
         <v>1215</v>
       </c>
       <c r="D1306" t="s">
-        <v>79</v>
+        <v>7</v>
       </c>
       <c r="E1306" t="s">
-        <v>79</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1307" t="s">
-        <v>200</v>
+        <v>1616</v>
       </c>
       <c r="B1307" t="s">
-        <v>7</v>
+        <v>1616</v>
       </c>
       <c r="C1307" t="s">
         <v>1215</v>
       </c>
       <c r="D1307" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="E1307" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="1308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1308" t="s">
-        <v>1616</v>
+        <v>1630</v>
       </c>
       <c r="B1308" t="s">
-        <v>1616</v>
+        <v>1630</v>
       </c>
       <c r="C1308" t="s">
-        <v>1837</v>
+        <v>1215</v>
       </c>
       <c r="D1308" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="E1308" t="s">
-        <v>79</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1309" t="s">
-        <v>1630</v>
+        <v>1606</v>
       </c>
       <c r="B1309" t="s">
-        <v>1630</v>
+        <v>1606</v>
       </c>
       <c r="C1309" t="s">
-        <v>1837</v>
+        <v>1215</v>
       </c>
       <c r="D1309" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="E1309" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="1310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1310" t="s">
-        <v>1606</v>
+        <v>119</v>
       </c>
       <c r="B1310" t="s">
-        <v>1606</v>
+        <v>119</v>
       </c>
       <c r="C1310" t="s">
-        <v>1837</v>
+        <v>1215</v>
       </c>
       <c r="D1310" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="E1310" t="s">
-        <v>79</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1311" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="B1311" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="C1311" t="s">
-        <v>1837</v>
+        <v>1215</v>
       </c>
       <c r="D1311" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E1311" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1312" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1312" t="s">
-        <v>260</v>
-      </c>
       <c r="B1312" t="s">
-        <v>260</v>
+        <v>79</v>
       </c>
       <c r="C1312" t="s">
-        <v>1837</v>
+        <v>1215</v>
       </c>
       <c r="D1312" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="E1312" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1306"/>
+  <autoFilter ref="A1:E1312"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
